--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_06_beg.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_06_beg.xlsx
@@ -940,7 +940,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="High Priest"]  What do you think of the "Age of Big Ugly"? Oh, maybe the "Age of the High Priest" too. Yes, that sounds almost as cool as I do.
+    <t xml:space="preserve">[name="High Priest"]  What do you think of the 'Age of Big Ugly'? Oh, maybe the 'Age of the High Priest' too. Yes, that sounds almost as cool as I do.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_06_beg.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_06_beg.xlsx
@@ -900,7 +900,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  I’m asking you about the Big, Ugly Thing.
+    <t xml:space="preserve">[name="Eunectes"]  I'm asking you about the Big, Ugly Thing.
 </t>
   </si>
   <si>
@@ -916,15 +916,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  Yeah, the ceremony happened way too quickly. The Big Ugly wasn’t ready yet.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  I was hoping to wait until we finished it before talking to the other tribes about the ceremony, but they’d already gone ahead with it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="High Priest"]  It’s okay. It all turned out fine!
+    <t xml:space="preserve">[name="Eunectes"]  Yeah, the ceremony happened way too quickly. The Big Ugly wasn't ready yet.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  I was hoping to wait until we finished it before talking to the other tribes about the ceremony, but they'd already gone ahead with it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="High Priest"]  It's okay. It all turned out fine!
 </t>
   </si>
   <si>
@@ -932,7 +932,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  Yeah, we’ve accomplished our goal.
+    <t xml:space="preserve">[name="Eunectes"]  Yeah, we've accomplished our goal.
 </t>
   </si>
   <si>
@@ -944,27 +944,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  Let’s just call it the age of machines.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="High Priest"]  Sheesh, you have a lot going for you, but you’re still behind the times. Now that you’ve learned what it’s like outside, you should try to expand your horizons!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="High Priest"]  Here, check out my outfit. Don’t you think it’s trendy? Looks smart?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  You’re so short, I can’t even see it. What does trendy mean, anyway?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="High Priest"]  Argh, never mind. My mistake. I shouldn’t have brought this up. But no matter. I’ll pick out some clothes befitting you, our next Great Chief.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  I don’t mind how I dress. Anyway, I just got word from the tribesmen who stayed behind. They managed to steal an engine.
+    <t xml:space="preserve">[name="Eunectes"]  Let's just call it the age of machines.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="High Priest"]  Sheesh, you have a lot going for you, but you're still behind the times. Now that you've learned what it's like outside, you should try to expand your horizons!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="High Priest"]  Here, check out my outfit. Don't you think it's trendy? Looks smart?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  You're so short, I can't even see it. What does trendy mean, anyway?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="High Priest"]  Argh, never mind. My mistake. I shouldn't have brought this up. But no matter. I'll pick out some clothes befitting you, our next Great Chief.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  I don't mind how I dress. Anyway, I just got word from the tribesmen who stayed behind. They managed to steal an engine.
 </t>
   </si>
   <si>
@@ -976,15 +976,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="High Priest"]  Wonderful! I can’t wait to take a good look at it!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="High Priest"]  Oh, come to think of it, I can go check it out right now! I’ll see you later!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  The High Priest’s the same as ever.
+    <t xml:space="preserve">[name="High Priest"]  Wonderful! I can't wait to take a good look at it!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="High Priest"]  Oh, come to think of it, I can go check it out right now! I'll see you later!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  The High Priest's the same as ever.
 </t>
   </si>
   <si>
@@ -992,7 +992,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria B"]  What, you new here? That’s the High Priest! You know, the Big Ugly’s pilot!
+    <t xml:space="preserve">[name="Archosauria B"]  What, you new here? That's the High Priest! You know, the Big Ugly's pilot!
 </t>
   </si>
   <si>
@@ -1008,19 +1008,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria A"]  No kidding? He’s that good? !
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria B"]  Yeah, I’ve got no idea what tribe he’s from, but we all call him the High Priest now!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria A"]   Hm? Isn’t that Yogi over there? Hey, Yogi.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Yogi"]  Oh, it’s you two.
+    <t xml:space="preserve">[name="Archosauria A"]  No kidding? He's that good? !
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria B"]  Yeah, I've got no idea what tribe he's from, but we all call him the High Priest now!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria A"]   Hm? Isn't that Yogi over there? Hey, Yogi.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Yogi"]  Oh, it's you two.
 </t>
   </si>
   <si>
@@ -1028,19 +1028,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Yogi"]  Actually, I’m going to the leader to talk about that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria A"]  You idiot, she’s the Great Chief now!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Yogi"]  Oh, I’m going to the Great Chief.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  What’s the matter?
+    <t xml:space="preserve">[name="Yogi"]  Actually, I'm going to the leader to talk about that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria A"]  You idiot, she's the Great Chief now!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Yogi"]  Oh, I'm going to the Great Chief.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  What's the matter?
 </t>
   </si>
   <si>
@@ -1052,7 +1052,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Yogi"]  Oh, yes, sorry. I’m not very good at speaking it yet.
+    <t xml:space="preserve">[name="Yogi"]  Oh, yes, sorry. I'm not very good at speaking it yet.
 </t>
   </si>
   <si>
@@ -1060,11 +1060,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Yogi"]  He wanted to mine more ores and went deeper into the mine. He didn’t even listen to me when I told him not to...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  That idiot! Didn’t I tell you to stay away from the mine’s depths?!
+    <t xml:space="preserve">[name="Yogi"]  He wanted to mine more ores and went deeper into the mine. He didn't even listen to me when I told him not to...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  That idiot! Didn't I tell you to stay away from the mine's depths?!
 </t>
   </si>
   <si>
@@ -1084,7 +1084,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  ...So she really meant it when she said she’s a doctor now.
+    <t xml:space="preserve">[name="Eunectes"]  ...So she really meant it when she said she's a doctor now.
 </t>
   </si>
   <si>
@@ -1100,31 +1100,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria A"]  Hmph, I bet she’s just upset our leader defeated her!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria B"]  That’s right, leader! What you did back there. That boom! That was amazing!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria A"]  You didn’t call her Great Chief!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria B"]  You didn’t either!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria A"]  Get off my back, you moron! She’ll always be our tribe leader!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria B"]  Why don’t you get off my back? I just haven’t gotten used to calling her that yet!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  Gavial isn’t like that.
+    <t xml:space="preserve">[name="Archosauria A"]  Hmph, I bet she's just upset our leader defeated her!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria B"]  That's right, leader! What you did back there. That boom! That was amazing!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria A"]  You didn't call her Great Chief!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria B"]  You didn't either!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria A"]  Get off my back, you moron! She'll always be our tribe leader!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria B"]  Why don't you get off my back? I just haven't gotten used to calling her that yet!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  Gavial isn't like that.
 </t>
   </si>
   <si>
@@ -1136,11 +1136,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Yogi"]  At Tomimi’s tribe.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  Tomimi’s... You should go get your brother later.
+    <t xml:space="preserve">[name="Yogi"]  At Tomimi's tribe.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  Tomimi's... You should go get your brother later.
 </t>
   </si>
   <si>
@@ -1148,27 +1148,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="High Priest"]  I’m certain Gavial’s here to get her engine back!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  ...She’ll have to go through me to get it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  I’ll admit that Gavial’s strong, but she thinks her fists are everything.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  She’s wrong.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  If she’s here for her engine, then I’ll give her another taste of the Big Ugly’s might.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  ...But I won’t give it back to her. This engine is very important to our tribe, no, our future.
+    <t xml:space="preserve">[name="High Priest"]  I'm certain Gavial's here to get her engine back!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  ...She'll have to go through me to get it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  I'll admit that Gavial's strong, but she thinks her fists are everything.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  She's wrong.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  If she's here for her engine, then I'll give her another taste of the Big Ugly's might.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  ...But I won't give it back to her. This engine is very important to our tribe, no, our future.
 </t>
   </si>
   <si>
@@ -1180,11 +1180,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria A"]  Why don’t you cry in your bed some more about the Great Chief?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria B"]  And why don’t you go home to your mama and have her teach you what to call the Great Chief?!
+    <t xml:space="preserve">[name="Archosauria A"]  Why don't you cry in your bed some more about the Great Chief?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria B"]  And why don't you go home to your mama and have her teach you what to call the Great Chief?!
 </t>
   </si>
   <si>
@@ -1200,15 +1200,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Flint"]  You don’t want her to come, do you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  If she comes, I’ll defeat her.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Flint"]  So you don’t you want her here. Then I’ll stop her.
+    <t xml:space="preserve">[name="Flint"]  You don't want her to come, do you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  If she comes, I'll defeat her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Flint"]  So you don't you want her here. Then I'll stop her.
 </t>
   </si>
   <si>
@@ -1216,7 +1216,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Flint"]  I’ll be going, then.
+    <t xml:space="preserve">[name="Flint"]  I'll be going, then.
 </t>
   </si>
   <si>
@@ -1232,15 +1232,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Blaze"]  Tch, this rainforest’s way too humid! I’ve barely hiked half a day and I’m already drenched in sweat! And I haven’t seen a soul in the two days I’ve been here!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Blaze"]  Thank goodness I wore my swimsuit underneath. What a lifesaver. I’m really getting my money’s worth with it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Blaze"]  Really, though. Even when I climb the trees here, all I see is more trees! Just where’s that ceremony Gavial was talking about?
+    <t xml:space="preserve">[name="Blaze"]  Tch, this rainforest's way too humid! I've barely hiked half a day and I'm already drenched in sweat! And I haven't seen a soul in the two days I've been here!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  Thank goodness I wore my swimsuit underneath. What a lifesaver. I'm really getting my money's worth with it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  Really, though. Even when I climb the trees here, all I see is more trees! Just where's that ceremony Gavial was talking about?
 </t>
   </si>
   <si>
@@ -1248,15 +1248,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Blaze"]  Hey, Gavial, your tail’s tiny!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Blaze"]  Hey, Doctor, maybe it’s time for you to change that hood of yours!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Blaze"]  ...Tsk, they aren’t within earshot.
+    <t xml:space="preserve">[name="Blaze"]  Hey, Gavial, your tail's tiny!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  Hey, Doctor, maybe it's time for you to change that hood of yours!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  ...Tsk, they aren't within earshot.
 </t>
   </si>
   <si>
@@ -1264,7 +1264,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Blaze"]  I guess I shouldn’t worry since Gavial said she’d take care of the Doctor, but... I’m not sure that’s all that reassuring, knowing her.
+    <t xml:space="preserve">[name="Blaze"]  I guess I shouldn't worry since Gavial said she'd take care of the Doctor, but... I'm not sure that's all that reassuring, knowing her.
 </t>
   </si>
   <si>
@@ -1284,7 +1284,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Flint"]  I haven’t seen clothes like that before. Who are you?
+    <t xml:space="preserve">[name="Flint"]  I haven't seen clothes like that before. Who are you?
 </t>
   </si>
   <si>
@@ -1292,11 +1292,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Flint"]  You don’t understand me?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Blaze"]  Urgh, is this for real? Gavial didn’t tell me people here speak a different language!
+    <t xml:space="preserve">[name="Flint"]  You don't understand me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  Urgh, is this for real? Gavial didn't tell me people here speak a different language!
 </t>
   </si>
   <si>
@@ -1304,15 +1304,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Blaze"]  Hey, c’mon! This how you people treat visitors?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Flint"]  Just as I thought, you’re strong.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Flint"]  Before I take Gavial down, I’ll have some fun with you first.
+    <t xml:space="preserve">[name="Blaze"]  Hey, c'mon! This how you people treat visitors?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Flint"]  Just as I thought, you're strong.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Flint"]  Before I take Gavial down, I'll have some fun with you first.
 </t>
   </si>
   <si>
@@ -1320,7 +1320,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Blaze"]  Whatever, I’m in a pretty bad mood right now. If you want to fight, then bring it on!
+    <t xml:space="preserve">[name="Blaze"]  Whatever, I'm in a pretty bad mood right now. If you want to fight, then bring it on!
 </t>
   </si>
   <si>
